--- a/medicine/Enfance/Marie-Louise_Fischer/Marie-Louise_Fischer.xlsx
+++ b/medicine/Enfance/Marie-Louise_Fischer/Marie-Louise_Fischer.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Marie-Louise Fischer (née le 28 octobre 1922 à Düsseldorf et décédée le 2 avril 2005 à Prien am Chiemsee, Bavière), est une écrivaine allemande de romans sentimentaux et policiers, ainsi que de nombreux romans pour la jeunesse. Traduits dans 23 langues, ses livres ont connu un succès international. En France, 85 titres ont été régulièrement réédités jusqu'au début des années 1990.
 Marie-Louise Fischer a également publié sous les pseudonymes : A. G. Miller, Dr. Christoph Vollmer, Kirsten Lindstroem et Katja Holm.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cadette d'une fratrie de trois enfants, fille d'un père commerçant, Marie-Louise Fischer obtient son baccalauréat et fait des études de littérature et de linguistique allemandes, de Sciences du théâtre et de Histoire de l'art dans les villes de Prague, Cologne et Munich. Elle travaille comme dramaturge et lectrice dans le Protectorat de Bohême-Moravie pour le studio cinématographique allemand Prag-Film.
-En 1945, à l'âge de vingt-trois ans, elle est envoyée en Tchécoslovaquie où elle doit effectuer des travaux forcés d'agriculture pendant un an et demi[1]. 
-Son premier roman est publié en 1953. Jusqu'en 1998, elle écrira plus de cent romans, principalement des romans d'amour, mais aussi des romans policiers. Grands succès de librairie, ils seront traduits en 23 langues. Dans la seule Allemagne, 70 millions d'exemplaires seront vendus ; quelques-uns seront adaptés à la télévision[2].
+En 1945, à l'âge de vingt-trois ans, elle est envoyée en Tchécoslovaquie où elle doit effectuer des travaux forcés d'agriculture pendant un an et demi. 
+Son premier roman est publié en 1953. Jusqu'en 1998, elle écrira plus de cent romans, principalement des romans d'amour, mais aussi des romans policiers. Grands succès de librairie, ils seront traduits en 23 langues. Dans la seule Allemagne, 70 millions d'exemplaires seront vendus ; quelques-uns seront adaptés à la télévision.
 Elle a également publié 75 romans pour enfants et adolescents, destinés principalement à un lectorat féminin. 
-Elle a connu son apogée dans les années 1970 et 80. Malgré ses nombreux best-sellers, elle n'a pas eu la reconnaissance du monde littéraire, ses écrits étant considérés comme de la lecture de divertissement[3].
+Elle a connu son apogée dans les années 1970 et 80. Malgré ses nombreux best-sellers, elle n'a pas eu la reconnaissance du monde littéraire, ses écrits étant considérés comme de la lecture de divertissement.
 Marié à l'écrivain Hans Gustl Kernmayr, elle a eu deux enfants.
 </t>
         </is>
@@ -548,11 +562,48 @@
           <t>Titres parus en France</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Note : liste exhaustive. La première date est celle de la première édition française.
-Romans sentimentaux
-1963 : Les Damnés du mensonge (Kinderarzt Dr. Vogel). Traduction et adaptation de Paul-Marie Banzet. Collection Stendhal, éditions de Trévise.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Note : liste exhaustive. La première date est celle de la première édition française.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Marie-Louise_Fischer</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Louise_Fischer</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Titres parus en France</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans sentimentaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1963 : Les Damnés du mensonge (Kinderarzt Dr. Vogel). Traduction et adaptation de Paul-Marie Banzet. Collection Stendhal, éditions de Trévise.
 1963 : Secrétaire particulière (Die Chefsekretärin). Traduit par E. Ledermann et Charles Billy. Collection Stendhal, éditions de Trévise. Réédité en 1980 sous le titre Secrétaire du patron, Pocket n°1937.
 1966 : Vous êtes sans pitié, docteur ! (Frauenstation, 1964). Traduit par Odette Gailly. Presses de la Cité.
 1967 : Claudia Orlini (Versuchung in Rom). Traduit par Odette Gailly. Presses de la Cité.
@@ -613,9 +664,43 @@
 1984 : Rêves de femmes. Collection : Romans. Presses de la Cité.  (ISBN 2-258-01486-7)
 1986 : Rendez-vous avec l'amour. Presses de la Cité.  (ISBN 2-258-01725-4)
 1986 : Au nom du bonheur (Als wäre nichts geschehen). Traduit par Jacques Roque. Presses de la Cité.  (ISBN 2-258-01935-4)
-1988 : Revers de fortune (Plötzlicher Reichtum). Traduit par Jacques Roque. Presses de la Cité.  (ISBN 2-258-02143-X)
-Romans pour la jeunesse
-1963 : Nicole avec nous ! (Die Klasse ist für Petra). Illustrations de Graziella Sarno. Traduit par Olivier Séchan. Éditions Hachette, collection Idéal-Bibliothèque.
+1988 : Revers de fortune (Plötzlicher Reichtum). Traduit par Jacques Roque. Presses de la Cité.  (ISBN 2-258-02143-X)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Marie-Louise_Fischer</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Marie-Louise_Fischer</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Titres parus en France</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans pour la jeunesse</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>1963 : Nicole avec nous ! (Die Klasse ist für Petra). Illustrations de Graziella Sarno. Traduit par Olivier Séchan. Éditions Hachette, collection Idéal-Bibliothèque.
 1965 : Tessa la Fanfaronne (Im Schwindeln eine eins). Illustrations de François Batet. Traduit par Olivier Séchan. Hachette, coll. Idéal-Bibliothèque no 276.
 1966 : Danielle mène la danse (Daniela und der Klassenschreck). Illustré par François Batet. Traduit par Olivier Séchan. Hachette, coll. Bibliothèque verte no 311.
 1967 : Ursula et ses amies (Ulrike kommt ins Internat, 1963). Illustrations de Albert Chazelle. Hachette, coll. Bibliothèque verte no n°333.
